--- a/database/db_generales.xlsx
+++ b/database/db_generales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stm\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA30ED2-478D-45DA-A544-71A44D9D0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EBC4CC-1E92-47E9-A79E-7AD75B57BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" xr2:uid="{EF707940-178D-4E1B-8F48-A8576339D655}"/>
   </bookViews>
@@ -2743,29 +2743,29 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4174,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86F525-153E-492F-8CBD-04A4A1A0692E}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,7 +4283,7 @@
       <c r="I3">
         <v>1996</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="I6">
         <v>1985</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4677,6 +4677,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C48" r:id="rId1" xr:uid="{EE823A13-F6C7-46A3-A5A1-18B0823693B9}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{A9334D5D-17A6-448D-92FE-72E77B466C81}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{2B5CB72A-CF08-42CC-BD83-CDA44AB9CA34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4723,118 +4725,118 @@
       <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="70" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -4887,42 +4889,42 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -4972,23 +4974,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -5038,23 +5040,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -5104,23 +5106,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
@@ -5170,42 +5172,42 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="71" t="s">
         <v>388</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
@@ -5255,23 +5257,23 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
@@ -5321,23 +5323,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -5387,23 +5389,23 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
@@ -5453,42 +5455,42 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="71" t="s">
         <v>387</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
@@ -5538,23 +5540,23 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -5604,23 +5606,23 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
@@ -5670,23 +5672,23 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
@@ -5736,42 +5738,42 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
@@ -5821,23 +5823,23 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -5887,23 +5889,23 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
@@ -5953,23 +5955,23 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
@@ -6019,42 +6021,42 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
@@ -6104,23 +6106,23 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -6170,23 +6172,23 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
@@ -6236,23 +6238,23 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
@@ -6302,42 +6304,42 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
@@ -6387,23 +6389,23 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
@@ -6453,23 +6455,23 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
@@ -6519,23 +6521,23 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
@@ -6585,42 +6587,42 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="71" t="s">
         <v>382</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -6670,23 +6672,23 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
@@ -6736,23 +6738,23 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
@@ -6802,23 +6804,23 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
@@ -6884,50 +6886,33 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="70" t="s">
+      <c r="A78" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A25:O25"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A78:O78"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="A66:O66"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A72:O72"/>
     <mergeCell ref="A61:O61"/>
     <mergeCell ref="A41:O41"/>
     <mergeCell ref="A43:O43"/>
@@ -6940,13 +6925,30 @@
     <mergeCell ref="A56:O56"/>
     <mergeCell ref="A57:O57"/>
     <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A78:O78"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A65:O65"/>
-    <mergeCell ref="A66:O66"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A72:O72"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A14:O14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8552,9 +8554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB503A94-911E-4458-8DDA-99EF9467ABA3}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8680,7 +8680,7 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8714,118 +8714,118 @@
       <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="70" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -8878,42 +8878,42 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
@@ -8963,23 +8963,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -9029,23 +9029,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -9095,23 +9095,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
@@ -9161,42 +9161,42 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="71" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
@@ -9246,23 +9246,23 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
@@ -9312,23 +9312,23 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -9378,23 +9378,23 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
@@ -9444,42 +9444,42 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
@@ -9529,23 +9529,23 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -9595,23 +9595,23 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
@@ -9661,23 +9661,23 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
@@ -9727,42 +9727,42 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
@@ -9812,23 +9812,23 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -9878,23 +9878,23 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
@@ -9944,23 +9944,23 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
@@ -10010,42 +10010,42 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
@@ -10095,23 +10095,23 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
@@ -10161,23 +10161,23 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
@@ -10227,23 +10227,23 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
@@ -10293,42 +10293,42 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="72"/>
+      <c r="L57" s="72"/>
+      <c r="M57" s="72"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="39" t="s">
@@ -10378,23 +10378,23 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71"/>
-      <c r="O59" s="71"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
@@ -10444,23 +10444,23 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
@@ -10510,23 +10510,23 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
-      <c r="O63" s="71"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
@@ -10576,42 +10576,42 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="72"/>
-      <c r="L65" s="72"/>
-      <c r="M65" s="72"/>
-      <c r="N65" s="72"/>
-      <c r="O65" s="72"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="71"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
+      <c r="N65" s="71"/>
+      <c r="O65" s="71"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="71" t="s">
+      <c r="A66" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B66" s="71"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="71"/>
-      <c r="L66" s="71"/>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71"/>
-      <c r="O66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
+      <c r="N66" s="72"/>
+      <c r="O66" s="72"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="39" t="s">
@@ -10661,23 +10661,23 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-      <c r="K68" s="71"/>
-      <c r="L68" s="71"/>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71"/>
-      <c r="O68" s="71"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="39" t="s">
@@ -10727,23 +10727,23 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="39" t="s">
@@ -10793,23 +10793,23 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="72"/>
+      <c r="L72" s="72"/>
+      <c r="M72" s="72"/>
+      <c r="N72" s="72"/>
+      <c r="O72" s="72"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
@@ -10859,42 +10859,42 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="B74" s="72"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="72"/>
-      <c r="L74" s="72"/>
-      <c r="M74" s="72"/>
-      <c r="N74" s="72"/>
-      <c r="O74" s="72"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
+      <c r="N74" s="71"/>
+      <c r="O74" s="71"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B75" s="71"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="71"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71"/>
-      <c r="O75" s="71"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="72"/>
+      <c r="M75" s="72"/>
+      <c r="N75" s="72"/>
+      <c r="O75" s="72"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
@@ -10944,23 +10944,23 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71"/>
-      <c r="O77" s="71"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="72"/>
+      <c r="L77" s="72"/>
+      <c r="M77" s="72"/>
+      <c r="N77" s="72"/>
+      <c r="O77" s="72"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="39" t="s">
@@ -11010,23 +11010,23 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="72"/>
+      <c r="N79" s="72"/>
+      <c r="O79" s="72"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="39" t="s">
@@ -11076,23 +11076,23 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="72"/>
+      <c r="L81" s="72"/>
+      <c r="M81" s="72"/>
+      <c r="N81" s="72"/>
+      <c r="O81" s="72"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
@@ -11142,42 +11142,42 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="71" t="s">
         <v>409</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
-      <c r="I83" s="72"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="72"/>
-      <c r="L83" s="72"/>
-      <c r="M83" s="72"/>
-      <c r="N83" s="72"/>
-      <c r="O83" s="72"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="71"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
+      <c r="O83" s="71"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="71" t="s">
+      <c r="A84" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+      <c r="O84" s="72"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="39" t="s">
@@ -11227,23 +11227,23 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="71" t="s">
+      <c r="A86" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="71"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="72"/>
+      <c r="L86" s="72"/>
+      <c r="M86" s="72"/>
+      <c r="N86" s="72"/>
+      <c r="O86" s="72"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
@@ -11293,23 +11293,23 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="71"/>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71"/>
-      <c r="O88" s="71"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
@@ -11359,23 +11359,23 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="72"/>
+      <c r="O90" s="72"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
@@ -11425,42 +11425,42 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="71" t="s">
         <v>408</v>
       </c>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="72"/>
-      <c r="J92" s="72"/>
-      <c r="K92" s="72"/>
-      <c r="L92" s="72"/>
-      <c r="M92" s="72"/>
-      <c r="N92" s="72"/>
-      <c r="O92" s="72"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+      <c r="O92" s="71"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="71" t="s">
+      <c r="A93" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="71"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="72"/>
+      <c r="O93" s="72"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
@@ -11510,23 +11510,23 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="71" t="s">
+      <c r="A95" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="71"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72"/>
+      <c r="L95" s="72"/>
+      <c r="M95" s="72"/>
+      <c r="N95" s="72"/>
+      <c r="O95" s="72"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="39" t="s">
@@ -11576,23 +11576,23 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71"/>
-      <c r="O97" s="71"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
+      <c r="N97" s="72"/>
+      <c r="O97" s="72"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
@@ -11642,23 +11642,23 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71"/>
-      <c r="O99" s="71"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="72"/>
+      <c r="M99" s="72"/>
+      <c r="N99" s="72"/>
+      <c r="O99" s="72"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="39" t="s">
@@ -11724,26 +11724,72 @@
       </c>
     </row>
     <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="70" t="s">
+      <c r="A105" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="70"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A95:O95"/>
+    <mergeCell ref="A97:O97"/>
+    <mergeCell ref="A99:O99"/>
+    <mergeCell ref="A105:O105"/>
+    <mergeCell ref="A84:O84"/>
+    <mergeCell ref="A86:O86"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A90:O90"/>
+    <mergeCell ref="A92:O92"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A65:O65"/>
+    <mergeCell ref="A66:O66"/>
+    <mergeCell ref="A68:O68"/>
+    <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A72:O72"/>
+    <mergeCell ref="A74:O74"/>
+    <mergeCell ref="A75:O75"/>
+    <mergeCell ref="A77:O77"/>
+    <mergeCell ref="A79:O79"/>
+    <mergeCell ref="A81:O81"/>
+    <mergeCell ref="A61:O61"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A20:O20"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A25:O25"/>
+    <mergeCell ref="A27:O27"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A54:O54"/>
+    <mergeCell ref="A56:O56"/>
+    <mergeCell ref="A57:O57"/>
+    <mergeCell ref="A59:O59"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A36:O36"/>
     <mergeCell ref="A14:O14"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="A18:O18"/>
@@ -11756,52 +11802,6 @@
     <mergeCell ref="A8:O8"/>
     <mergeCell ref="A11:O11"/>
     <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A30:O30"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A34:O34"/>
-    <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A54:O54"/>
-    <mergeCell ref="A56:O56"/>
-    <mergeCell ref="A57:O57"/>
-    <mergeCell ref="A59:O59"/>
-    <mergeCell ref="A39:O39"/>
-    <mergeCell ref="A20:O20"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A25:O25"/>
-    <mergeCell ref="A27:O27"/>
-    <mergeCell ref="A61:O61"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A83:O83"/>
-    <mergeCell ref="A63:O63"/>
-    <mergeCell ref="A65:O65"/>
-    <mergeCell ref="A66:O66"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A72:O72"/>
-    <mergeCell ref="A74:O74"/>
-    <mergeCell ref="A75:O75"/>
-    <mergeCell ref="A77:O77"/>
-    <mergeCell ref="A79:O79"/>
-    <mergeCell ref="A81:O81"/>
-    <mergeCell ref="A95:O95"/>
-    <mergeCell ref="A97:O97"/>
-    <mergeCell ref="A99:O99"/>
-    <mergeCell ref="A105:O105"/>
-    <mergeCell ref="A84:O84"/>
-    <mergeCell ref="A86:O86"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A90:O90"/>
-    <mergeCell ref="A92:O92"/>
-    <mergeCell ref="A93:O93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11811,9 +11811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A15AE73-228E-4C39-A2FA-17EA0F4C29F1}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14048,7 +14046,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14336,8 +14334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EDA626-9A21-4CF0-8883-2E1971BAB7C3}">
   <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14347,49 +14345,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="75"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="75" t="s">
         <v>530</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="75"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>529</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="75"/>
     </row>
     <row r="6" spans="1:2" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="75" t="s">
         <v>527</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="75" t="s">
         <v>526</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="75"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
@@ -14409,10 +14407,10 @@
       <c r="B11" s="76"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="77"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
@@ -14429,10 +14427,10 @@
       <c r="B14" s="76"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="77"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
@@ -14449,10 +14447,10 @@
       <c r="B17" s="76"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="77"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
@@ -14469,10 +14467,10 @@
       <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
@@ -14489,10 +14487,10 @@
       <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="77"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
@@ -14509,10 +14507,10 @@
       <c r="B26" s="76"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="77"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
@@ -14529,10 +14527,10 @@
       <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B30" s="75"/>
+      <c r="B30" s="77"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
@@ -14549,10 +14547,10 @@
       <c r="B32" s="76"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B33" s="75"/>
+      <c r="B33" s="77"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
@@ -14569,10 +14567,10 @@
       <c r="B35" s="76"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="77"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
@@ -14589,10 +14587,10 @@
       <c r="B38" s="76"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="77"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="55" t="s">
@@ -14609,10 +14607,10 @@
       <c r="B41" s="76"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="77"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
@@ -14629,10 +14627,10 @@
       <c r="B44" s="76"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="77"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="55" t="s">
@@ -14649,10 +14647,10 @@
       <c r="B47" s="76"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B48" s="75"/>
+      <c r="B48" s="77"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
@@ -14669,10 +14667,10 @@
       <c r="B50" s="76"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B51" s="75"/>
+      <c r="B51" s="77"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="55" t="s">
@@ -14689,10 +14687,10 @@
       <c r="B53" s="76"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="75"/>
+      <c r="B54" s="77"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
@@ -14709,10 +14707,10 @@
       <c r="B56" s="76"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B57" s="75"/>
+      <c r="B57" s="77"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="55" t="s">
@@ -14729,10 +14727,10 @@
       <c r="B59" s="76"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B60" s="75"/>
+      <c r="B60" s="77"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="55" t="s">
@@ -14749,10 +14747,10 @@
       <c r="B62" s="76"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B63" s="75"/>
+      <c r="B63" s="77"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
@@ -14769,10 +14767,10 @@
       <c r="B65" s="76"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B66" s="75"/>
+      <c r="B66" s="77"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
@@ -14789,10 +14787,10 @@
       <c r="B68" s="76"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B69" s="75"/>
+      <c r="B69" s="77"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
@@ -14809,10 +14807,10 @@
       <c r="B71" s="76"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B72" s="75"/>
+      <c r="B72" s="77"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
@@ -14829,10 +14827,10 @@
       <c r="B74" s="76"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B75" s="75"/>
+      <c r="B75" s="77"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
@@ -14849,10 +14847,10 @@
       <c r="B77" s="76"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="75"/>
+      <c r="B78" s="77"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="55" t="s">
@@ -14869,10 +14867,10 @@
       <c r="B80" s="76"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="s">
+      <c r="A81" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B81" s="75"/>
+      <c r="B81" s="77"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
@@ -14889,10 +14887,10 @@
       <c r="B83" s="76"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B84" s="75"/>
+      <c r="B84" s="77"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
@@ -14909,10 +14907,10 @@
       <c r="B86" s="76"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B87" s="75"/>
+      <c r="B87" s="77"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
@@ -14929,10 +14927,10 @@
       <c r="B89" s="76"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B90" s="75"/>
+      <c r="B90" s="77"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
@@ -14949,10 +14947,10 @@
       <c r="B92" s="76"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B93" s="75"/>
+      <c r="B93" s="77"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
@@ -14969,10 +14967,10 @@
       <c r="B95" s="76"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B96" s="75"/>
+      <c r="B96" s="77"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
@@ -14989,10 +14987,10 @@
       <c r="B98" s="76"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="75"/>
+      <c r="B99" s="77"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="55" t="s">
@@ -15009,10 +15007,10 @@
       <c r="B101" s="76"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B102" s="75"/>
+      <c r="B102" s="77"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -15029,10 +15027,10 @@
       <c r="B104" s="76"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B105" s="75"/>
+      <c r="B105" s="77"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="55" t="s">
@@ -15049,10 +15047,10 @@
       <c r="B107" s="76"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B108" s="75"/>
+      <c r="B108" s="77"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="55" t="s">
@@ -15069,10 +15067,10 @@
       <c r="B110" s="76"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="75" t="s">
+      <c r="A111" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B111" s="75"/>
+      <c r="B111" s="77"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="55" t="s">
@@ -15089,10 +15087,10 @@
       <c r="B113" s="76"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B114" s="75"/>
+      <c r="B114" s="77"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="55" t="s">
@@ -15109,10 +15107,10 @@
       <c r="B116" s="76"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B117" s="75"/>
+      <c r="B117" s="77"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="55" t="s">
@@ -15129,10 +15127,10 @@
       <c r="B119" s="76"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B120" s="75"/>
+      <c r="B120" s="77"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="55" t="s">
@@ -15149,10 +15147,10 @@
       <c r="B122" s="76"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="75" t="s">
+      <c r="A123" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="75"/>
+      <c r="B123" s="77"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="55" t="s">
@@ -15169,10 +15167,10 @@
       <c r="B125" s="76"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="75" t="s">
+      <c r="A126" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B126" s="75"/>
+      <c r="B126" s="77"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="55" t="s">
@@ -15189,10 +15187,10 @@
       <c r="B128" s="76"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="75" t="s">
+      <c r="A129" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B129" s="75"/>
+      <c r="B129" s="77"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="55" t="s">
@@ -15209,10 +15207,10 @@
       <c r="B131" s="76"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="75" t="s">
+      <c r="A132" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B132" s="75"/>
+      <c r="B132" s="77"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="55" t="s">
@@ -15229,10 +15227,10 @@
       <c r="B134" s="76"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="75" t="s">
+      <c r="A135" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B135" s="75"/>
+      <c r="B135" s="77"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="55" t="s">
@@ -15249,10 +15247,10 @@
       <c r="B137" s="76"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="75" t="s">
+      <c r="A138" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B138" s="75"/>
+      <c r="B138" s="77"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="55" t="s">
@@ -15269,10 +15267,10 @@
       <c r="B140" s="76"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B141" s="75"/>
+      <c r="B141" s="77"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="55" t="s">
@@ -15289,10 +15287,10 @@
       <c r="B143" s="76"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="75" t="s">
+      <c r="A144" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B144" s="75"/>
+      <c r="B144" s="77"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="55" t="s">
@@ -15309,10 +15307,10 @@
       <c r="B146" s="76"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="75" t="s">
+      <c r="A147" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B147" s="75"/>
+      <c r="B147" s="77"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="55" t="s">
@@ -15329,10 +15327,10 @@
       <c r="B149" s="76"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="75" t="s">
+      <c r="A150" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B150" s="75"/>
+      <c r="B150" s="77"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="55" t="s">
@@ -15349,10 +15347,10 @@
       <c r="B152" s="76"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="75" t="s">
+      <c r="A153" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B153" s="75"/>
+      <c r="B153" s="77"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="55" t="s">
@@ -15369,10 +15367,10 @@
       <c r="B155" s="76"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="75" t="s">
+      <c r="A156" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B156" s="75"/>
+      <c r="B156" s="77"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="55" t="s">
@@ -15389,10 +15387,10 @@
       <c r="B158" s="76"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="75" t="s">
+      <c r="A159" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B159" s="75"/>
+      <c r="B159" s="77"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="55" t="s">
@@ -15409,10 +15407,10 @@
       <c r="B161" s="76"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="75" t="s">
+      <c r="A162" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B162" s="75"/>
+      <c r="B162" s="77"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="55" t="s">
@@ -15429,10 +15427,10 @@
       <c r="B164" s="76"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="75" t="s">
+      <c r="A165" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B165" s="75"/>
+      <c r="B165" s="77"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="55" t="s">
@@ -15449,10 +15447,10 @@
       <c r="B167" s="76"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B168" s="75"/>
+      <c r="B168" s="77"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="55" t="s">
@@ -15469,10 +15467,10 @@
       <c r="B170" s="76"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B171" s="75"/>
+      <c r="B171" s="77"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="55" t="s">
@@ -15489,10 +15487,10 @@
       <c r="B173" s="76"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="75" t="s">
+      <c r="A174" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B174" s="75"/>
+      <c r="B174" s="77"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="55" t="s">
@@ -15509,10 +15507,10 @@
       <c r="B176" s="76"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="75" t="s">
+      <c r="A177" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B177" s="75"/>
+      <c r="B177" s="77"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="55" t="s">
@@ -15529,10 +15527,10 @@
       <c r="B179" s="76"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="75" t="s">
+      <c r="A180" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B180" s="75"/>
+      <c r="B180" s="77"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="55" t="s">
@@ -15549,10 +15547,10 @@
       <c r="B182" s="76"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="75" t="s">
+      <c r="A183" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B183" s="75"/>
+      <c r="B183" s="77"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="55" t="s">
@@ -15569,10 +15567,10 @@
       <c r="B185" s="76"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="75" t="s">
+      <c r="A186" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B186" s="75"/>
+      <c r="B186" s="77"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="55" t="s">
@@ -15589,10 +15587,10 @@
       <c r="B188" s="76"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="75" t="s">
+      <c r="A189" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B189" s="75"/>
+      <c r="B189" s="77"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="55" t="s">
@@ -15609,10 +15607,10 @@
       <c r="B191" s="76"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="75" t="s">
+      <c r="A192" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B192" s="75"/>
+      <c r="B192" s="77"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="55" t="s">
@@ -15629,10 +15627,10 @@
       <c r="B194" s="76"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="75" t="s">
+      <c r="A195" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B195" s="75"/>
+      <c r="B195" s="77"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="55" t="s">
@@ -15649,10 +15647,10 @@
       <c r="B197" s="76"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="75" t="s">
+      <c r="A198" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B198" s="75"/>
+      <c r="B198" s="77"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="55" t="s">
@@ -15669,10 +15667,10 @@
       <c r="B200" s="76"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="75" t="s">
+      <c r="A201" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B201" s="75"/>
+      <c r="B201" s="77"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="55" t="s">
@@ -15689,10 +15687,10 @@
       <c r="B203" s="76"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="75" t="s">
+      <c r="A204" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B204" s="75"/>
+      <c r="B204" s="77"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="55" t="s">
@@ -15709,10 +15707,10 @@
       <c r="B206" s="76"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="75" t="s">
+      <c r="A207" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B207" s="75"/>
+      <c r="B207" s="77"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="55" t="s">
@@ -15729,10 +15727,10 @@
       <c r="B209" s="76"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="75" t="s">
+      <c r="A210" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B210" s="75"/>
+      <c r="B210" s="77"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="55" t="s">
@@ -15749,10 +15747,10 @@
       <c r="B212" s="76"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="75" t="s">
+      <c r="A213" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B213" s="75"/>
+      <c r="B213" s="77"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="55" t="s">
@@ -15769,10 +15767,10 @@
       <c r="B215" s="76"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="75" t="s">
+      <c r="A216" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B216" s="75"/>
+      <c r="B216" s="77"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="55" t="s">
@@ -15789,10 +15787,10 @@
       <c r="B218" s="76"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="75" t="s">
+      <c r="A219" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B219" s="75"/>
+      <c r="B219" s="77"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="55" t="s">
@@ -15809,10 +15807,10 @@
       <c r="B221" s="76"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="75" t="s">
+      <c r="A222" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B222" s="75"/>
+      <c r="B222" s="77"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="55" t="s">
@@ -15829,10 +15827,10 @@
       <c r="B224" s="76"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="75" t="s">
+      <c r="A225" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B225" s="75"/>
+      <c r="B225" s="77"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="55" t="s">
@@ -15849,10 +15847,10 @@
       <c r="B227" s="76"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="75" t="s">
+      <c r="A228" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B228" s="75"/>
+      <c r="B228" s="77"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="55" t="s">
@@ -15869,10 +15867,10 @@
       <c r="B230" s="76"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="75" t="s">
+      <c r="A231" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B231" s="75"/>
+      <c r="B231" s="77"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="55" t="s">
@@ -15889,10 +15887,10 @@
       <c r="B233" s="76"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="75" t="s">
+      <c r="A234" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B234" s="75"/>
+      <c r="B234" s="77"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="55" t="s">
@@ -15909,10 +15907,10 @@
       <c r="B236" s="76"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="75" t="s">
+      <c r="A237" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B237" s="75"/>
+      <c r="B237" s="77"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="55" t="s">
@@ -15929,10 +15927,10 @@
       <c r="B239" s="76"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="75" t="s">
+      <c r="A240" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B240" s="75"/>
+      <c r="B240" s="77"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="55" t="s">
@@ -15949,10 +15947,10 @@
       <c r="B242" s="76"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="75" t="s">
+      <c r="A243" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B243" s="75"/>
+      <c r="B243" s="77"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="55" t="s">
@@ -15969,10 +15967,10 @@
       <c r="B245" s="76"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="75" t="s">
+      <c r="A246" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B246" s="75"/>
+      <c r="B246" s="77"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="55" t="s">
@@ -15989,10 +15987,10 @@
       <c r="B248" s="76"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="75" t="s">
+      <c r="A249" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B249" s="75"/>
+      <c r="B249" s="77"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="55" t="s">
@@ -16009,10 +16007,10 @@
       <c r="B251" s="76"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="75" t="s">
+      <c r="A252" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B252" s="75"/>
+      <c r="B252" s="77"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="55" t="s">
@@ -16029,10 +16027,10 @@
       <c r="B254" s="76"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="75" t="s">
+      <c r="A255" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B255" s="75"/>
+      <c r="B255" s="77"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="55" t="s">
@@ -16049,10 +16047,10 @@
       <c r="B257" s="76"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="75" t="s">
+      <c r="A258" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B258" s="75"/>
+      <c r="B258" s="77"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="55" t="s">
@@ -16069,10 +16067,10 @@
       <c r="B260" s="76"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="75" t="s">
+      <c r="A261" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B261" s="75"/>
+      <c r="B261" s="77"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="55" t="s">
@@ -16089,10 +16087,10 @@
       <c r="B263" s="76"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="75" t="s">
+      <c r="A264" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B264" s="75"/>
+      <c r="B264" s="77"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="55" t="s">
@@ -16109,10 +16107,10 @@
       <c r="B266" s="76"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="75" t="s">
+      <c r="A267" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B267" s="75"/>
+      <c r="B267" s="77"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="55" t="s">
@@ -16129,10 +16127,10 @@
       <c r="B269" s="76"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="75" t="s">
+      <c r="A270" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B270" s="75"/>
+      <c r="B270" s="77"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="55" t="s">
@@ -16149,10 +16147,10 @@
       <c r="B272" s="76"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="75" t="s">
+      <c r="A273" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B273" s="75"/>
+      <c r="B273" s="77"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="55" t="s">
@@ -16169,10 +16167,10 @@
       <c r="B275" s="76"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="75" t="s">
+      <c r="A276" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B276" s="75"/>
+      <c r="B276" s="77"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="55" t="s">
@@ -16189,10 +16187,10 @@
       <c r="B278" s="76"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="75" t="s">
+      <c r="A279" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B279" s="75"/>
+      <c r="B279" s="77"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="55" t="s">
@@ -16209,10 +16207,10 @@
       <c r="B281" s="76"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="75" t="s">
+      <c r="A282" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B282" s="75"/>
+      <c r="B282" s="77"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="55" t="s">
@@ -16229,10 +16227,10 @@
       <c r="B284" s="76"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="75" t="s">
+      <c r="A285" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B285" s="75"/>
+      <c r="B285" s="77"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="55" t="s">
@@ -16249,10 +16247,10 @@
       <c r="B287" s="76"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="75" t="s">
+      <c r="A288" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B288" s="75"/>
+      <c r="B288" s="77"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="55" t="s">
@@ -16269,10 +16267,10 @@
       <c r="B290" s="76"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="75" t="s">
+      <c r="A291" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B291" s="75"/>
+      <c r="B291" s="77"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="55" t="s">
@@ -16289,10 +16287,10 @@
       <c r="B293" s="76"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="75" t="s">
+      <c r="A294" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B294" s="75"/>
+      <c r="B294" s="77"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="55" t="s">
@@ -16309,10 +16307,10 @@
       <c r="B296" s="76"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="75" t="s">
+      <c r="A297" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B297" s="75"/>
+      <c r="B297" s="77"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="55" t="s">
@@ -16329,10 +16327,10 @@
       <c r="B299" s="76"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="75" t="s">
+      <c r="A300" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B300" s="75"/>
+      <c r="B300" s="77"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="55" t="s">
@@ -16349,10 +16347,10 @@
       <c r="B302" s="76"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="75" t="s">
+      <c r="A303" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B303" s="75"/>
+      <c r="B303" s="77"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="55" t="s">
@@ -16369,10 +16367,10 @@
       <c r="B305" s="76"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="75" t="s">
+      <c r="A306" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B306" s="75"/>
+      <c r="B306" s="77"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="55" t="s">
@@ -16389,10 +16387,10 @@
       <c r="B308" s="76"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="75" t="s">
+      <c r="A309" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B309" s="75"/>
+      <c r="B309" s="77"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="55" t="s">
@@ -16409,10 +16407,10 @@
       <c r="B311" s="76"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="75" t="s">
+      <c r="A312" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B312" s="75"/>
+      <c r="B312" s="77"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="55" t="s">
@@ -16429,10 +16427,10 @@
       <c r="B314" s="76"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="75" t="s">
+      <c r="A315" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B315" s="75"/>
+      <c r="B315" s="77"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="55" t="s">
@@ -16449,10 +16447,10 @@
       <c r="B317" s="76"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="75" t="s">
+      <c r="A318" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B318" s="75"/>
+      <c r="B318" s="77"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="55" t="s">
@@ -16469,10 +16467,10 @@
       <c r="B320" s="76"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="75" t="s">
+      <c r="A321" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B321" s="75"/>
+      <c r="B321" s="77"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="55" t="s">
@@ -16489,10 +16487,10 @@
       <c r="B323" s="76"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="75" t="s">
+      <c r="A324" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B324" s="75"/>
+      <c r="B324" s="77"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="55" t="s">
@@ -16509,10 +16507,10 @@
       <c r="B326" s="76"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="75" t="s">
+      <c r="A327" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B327" s="75"/>
+      <c r="B327" s="77"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="55" t="s">
@@ -16529,10 +16527,10 @@
       <c r="B329" s="76"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="75" t="s">
+      <c r="A330" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B330" s="75"/>
+      <c r="B330" s="77"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="55" t="s">
@@ -16549,10 +16547,10 @@
       <c r="B332" s="76"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="75" t="s">
+      <c r="A333" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B333" s="75"/>
+      <c r="B333" s="77"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="55" t="s">
@@ -16569,10 +16567,10 @@
       <c r="B335" s="76"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="75" t="s">
+      <c r="A336" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B336" s="75"/>
+      <c r="B336" s="77"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="55" t="s">
@@ -16589,10 +16587,10 @@
       <c r="B338" s="76"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="75" t="s">
+      <c r="A339" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B339" s="75"/>
+      <c r="B339" s="77"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="55" t="s">
@@ -16609,10 +16607,10 @@
       <c r="B341" s="76"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="75" t="s">
+      <c r="A342" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B342" s="75"/>
+      <c r="B342" s="77"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="55" t="s">
@@ -16629,10 +16627,10 @@
       <c r="B344" s="76"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="75" t="s">
+      <c r="A345" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B345" s="75"/>
+      <c r="B345" s="77"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="55" t="s">
@@ -16649,10 +16647,10 @@
       <c r="B347" s="76"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="75" t="s">
+      <c r="A348" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B348" s="75"/>
+      <c r="B348" s="77"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="55" t="s">
@@ -16669,10 +16667,10 @@
       <c r="B350" s="76"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="75" t="s">
+      <c r="A351" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B351" s="75"/>
+      <c r="B351" s="77"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="55" t="s">
@@ -16689,10 +16687,10 @@
       <c r="B353" s="76"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="75" t="s">
+      <c r="A354" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B354" s="75"/>
+      <c r="B354" s="77"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="55" t="s">
@@ -16709,10 +16707,10 @@
       <c r="B356" s="76"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="75" t="s">
+      <c r="A357" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B357" s="75"/>
+      <c r="B357" s="77"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="55" t="s">
@@ -16729,10 +16727,10 @@
       <c r="B359" s="76"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="75" t="s">
+      <c r="A360" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="B360" s="75"/>
+      <c r="B360" s="77"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="55" t="s">
@@ -16759,238 +16757,13 @@
       </c>
     </row>
     <row r="366" spans="1:2" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="70" t="s">
+      <c r="A366" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="B366" s="70"/>
+      <c r="B366" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="242">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A336:B336"/>
     <mergeCell ref="A360:B360"/>
     <mergeCell ref="A366:B366"/>
     <mergeCell ref="A351:B351"/>
@@ -17008,6 +16781,231 @@
     <mergeCell ref="A347:B347"/>
     <mergeCell ref="A348:B348"/>
     <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17018,9 +17016,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:B354"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19155,7 +19151,7 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33689,6 +33685,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B90:AW90"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:AW11"/>
+    <mergeCell ref="B38:AW38"/>
+    <mergeCell ref="B64:AW64"/>
     <mergeCell ref="B97:AW97"/>
     <mergeCell ref="B98:AW98"/>
     <mergeCell ref="B99:AW99"/>
@@ -33698,12 +33700,6 @@
     <mergeCell ref="B94:AW94"/>
     <mergeCell ref="B95:AW95"/>
     <mergeCell ref="B96:AW96"/>
-    <mergeCell ref="B90:AW90"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B11:AW11"/>
-    <mergeCell ref="B38:AW38"/>
-    <mergeCell ref="B64:AW64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
